--- a/Data/Avnet TW - POS+INV - Mar'21.xlsx
+++ b/Data/Avnet TW - POS+INV - Mar'21.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cyrusp\Documents\SiTime Sales Data\Distrib_POS\Avnet_tw\2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JeffreyGeorge\PycharmProjects\SiTimeFileAnalysis\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307C6703-A44F-40C6-9A8E-45685D2FD4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{774A6C9E-1AEB-4100-A9F0-36CF48050EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-13210" yWindow="-18970" windowWidth="17280" windowHeight="15640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="POS" sheetId="2" r:id="rId1"/>
     <sheet name="Iventory" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iventory!$A$4:$G$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Iventory!$A$1:$G$16</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="72">
-  <si>
-    <t>SiTime Inventory Format</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="69">
   <si>
     <t>Distributor</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -133,9 +129,6 @@
     <t>Disti Cost</t>
   </si>
   <si>
-    <t>Month/ Year</t>
-  </si>
-  <si>
     <t>AVNET</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -200,10 +193,6 @@
   </si>
   <si>
     <t>WNC</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>03 / 21</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -539,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,7 +557,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -637,7 +625,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -991,788 +978,788 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q2" sqref="Q2:R14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="11.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.26953125" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.7265625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="11.89453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.89453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.89453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.26171875" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.734375" style="11" customWidth="1"/>
     <col min="6" max="6" width="12" style="11" customWidth="1"/>
-    <col min="7" max="7" width="10.90625" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.89453125" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="11" customWidth="1"/>
-    <col min="9" max="9" width="29.81640625" style="11" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="29.7890625" style="11" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1015625" style="11" customWidth="1"/>
     <col min="11" max="11" width="24" style="11" customWidth="1"/>
-    <col min="12" max="12" width="13.90625" style="11" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" style="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.08984375" style="11" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="19.26953125" style="11" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.453125" style="11" customWidth="1"/>
-    <col min="17" max="17" width="23.6328125" style="11" customWidth="1"/>
-    <col min="18" max="18" width="23.453125" style="11" customWidth="1"/>
-    <col min="19" max="16384" width="9.08984375" style="11"/>
+    <col min="12" max="12" width="13.89453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.734375" style="11" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.1015625" style="11" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="19.26171875" style="11" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.47265625" style="11" customWidth="1"/>
+    <col min="17" max="17" width="23.62890625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="23.47265625" style="11" customWidth="1"/>
+    <col min="19" max="16384" width="9.1015625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15" thickBot="1">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:18" ht="14.7" thickBot="1">
+      <c r="A1" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="G1" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="K1" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="M1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="14.7" thickBot="1">
+      <c r="A2" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="15" thickBot="1">
-      <c r="A2" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="18"/>
+      <c r="E2" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="17">
+        <v>7000</v>
+      </c>
+      <c r="G2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="18">
-        <v>7000</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="17">
         <v>0.52200000000000002</v>
       </c>
-      <c r="K2" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="L2" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="28">
+      <c r="K2" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="27">
         <v>39551</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="18">
+      <c r="N2" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="17">
         <v>210002305</v>
       </c>
-      <c r="Q2" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" s="30">
+      <c r="Q2" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" s="29">
         <v>202103</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15" thickBot="1">
-      <c r="A3" s="21" t="s">
-        <v>29</v>
+    <row r="3" spans="1:18" ht="14.7" thickBot="1">
+      <c r="A3" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="14"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F3" s="10">
         <v>2000</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>35</v>
+      <c r="I3" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J3" s="10">
         <v>0.52200000000000002</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="28">
+        <v>30</v>
+      </c>
+      <c r="M3" s="27">
         <v>39551</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P3" s="10">
         <v>210002362</v>
       </c>
-      <c r="Q3" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="R3" s="32">
+      <c r="Q3" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="R3" s="31">
         <v>202103</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="21" t="s">
-        <v>29</v>
+      <c r="A4" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="D4" s="12"/>
       <c r="E4" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F4" s="10">
         <v>3000</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="I4" s="13" t="s">
-        <v>35</v>
+      <c r="I4" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J4" s="10">
         <v>0.52200000000000002</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="28">
+        <v>30</v>
+      </c>
+      <c r="M4" s="27">
         <v>39551</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="P4" s="10">
         <v>210002422</v>
       </c>
-      <c r="Q4" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="R4" s="32">
+      <c r="Q4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="R4" s="31">
         <v>202103</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F5" s="10">
         <v>1000</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H5" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I5" s="13" t="s">
-        <v>35</v>
+      <c r="I5" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J5" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="15">
+        <v>31</v>
+      </c>
+      <c r="M5" s="14">
         <v>31674</v>
       </c>
       <c r="N5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R5" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="21" t="s">
+      <c r="D6" s="14"/>
+      <c r="E6" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F6" s="10">
         <v>1000</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H6" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I6" s="13" t="s">
-        <v>35</v>
+      <c r="I6" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J6" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M6" s="15">
+        <v>31</v>
+      </c>
+      <c r="M6" s="14">
         <v>31674</v>
       </c>
       <c r="N6" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q6" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R6" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="R6" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="21" t="s">
+      <c r="D7" s="14"/>
+      <c r="E7" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F7" s="10">
         <v>2000</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I7" s="13" t="s">
-        <v>35</v>
+      <c r="I7" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J7" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="15">
+        <v>31</v>
+      </c>
+      <c r="M7" s="14">
         <v>31674</v>
       </c>
       <c r="N7" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P7" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q7" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="R7" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="21" t="s">
+      <c r="D8" s="14"/>
+      <c r="E8" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F8" s="10">
         <v>5000</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H8" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I8" s="13" t="s">
-        <v>35</v>
+      <c r="I8" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J8" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" s="15">
+        <v>31</v>
+      </c>
+      <c r="M8" s="14">
         <v>31674</v>
       </c>
       <c r="N8" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R8" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P8" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q8" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="R8" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="21" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F9" s="10">
         <v>1000</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H9" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I9" s="13" t="s">
-        <v>35</v>
+      <c r="I9" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J9" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M9" s="15">
+        <v>32</v>
+      </c>
+      <c r="M9" s="14">
         <v>31674</v>
       </c>
       <c r="N9" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P9" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="R9" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P9" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q9" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="R9" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="21" t="s">
+      <c r="D10" s="14"/>
+      <c r="E10" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F10" s="10">
         <v>1000</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H10" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I10" s="13" t="s">
-        <v>35</v>
+      <c r="I10" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J10" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M10" s="15">
+        <v>32</v>
+      </c>
+      <c r="M10" s="14">
         <v>31674</v>
       </c>
       <c r="N10" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P10" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R10" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O10" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P10" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q10" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="21" t="s">
+      <c r="D11" s="14"/>
+      <c r="E11" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F11" s="10">
         <v>1000</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H11" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>35</v>
+      <c r="I11" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J11" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M11" s="15">
+        <v>32</v>
+      </c>
+      <c r="M11" s="14">
         <v>31674</v>
       </c>
       <c r="N11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R11" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P11" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q11" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="21" t="s">
+      <c r="D12" s="14"/>
+      <c r="E12" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F12" s="10">
         <v>3000</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H12" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I12" s="13" t="s">
-        <v>35</v>
+      <c r="I12" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J12" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="15">
+        <v>32</v>
+      </c>
+      <c r="M12" s="14">
         <v>31674</v>
       </c>
       <c r="N12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q12" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R12" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="O12" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P12" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="21" t="s">
+      <c r="D13" s="14"/>
+      <c r="E13" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="10" t="s">
-        <v>31</v>
       </c>
       <c r="F13" s="10">
         <v>1000</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H13" s="10">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>35</v>
+      <c r="I13" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="J13" s="10">
         <v>0.30499999999999999</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M13" s="15">
+        <v>32</v>
+      </c>
+      <c r="M13" s="14">
         <v>31674</v>
       </c>
       <c r="N13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="P13" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q13" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="R13" s="33">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" ht="14.7" thickBot="1">
+      <c r="A14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="P13" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="34">
-        <v>202105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" ht="15" thickBot="1">
-      <c r="A14" s="22" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>1000</v>
       </c>
-      <c r="G14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="23">
+      <c r="G14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="22">
         <v>0.33900000000000002</v>
       </c>
-      <c r="I14" s="25" t="s">
+      <c r="I14" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="22">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="K14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="L14" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="M14" s="14">
+        <v>31674</v>
+      </c>
+      <c r="N14" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="J14" s="23">
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="K14" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="L14" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="M14" s="15">
-        <v>31674</v>
-      </c>
-      <c r="N14" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="O14" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="P14" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="36">
+      <c r="O14" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q14" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="R14" s="35">
         <v>202105</v>
       </c>
     </row>
@@ -1785,300 +1772,313 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.81640625" customWidth="1"/>
-    <col min="3" max="3" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7890625" customWidth="1"/>
+    <col min="3" max="3" width="12.62890625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.1015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.62890625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" style="41" customWidth="1"/>
-    <col min="9" max="9" width="23.1796875" style="41" customWidth="1"/>
-    <col min="10" max="10" width="15.08984375" customWidth="1"/>
+    <col min="7" max="7" width="13.62890625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.734375" style="39" customWidth="1"/>
+    <col min="9" max="9" width="23.15625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="15.1015625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="21" customHeight="1">
-      <c r="A4" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="38" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="4">
+        <v>9000</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2135</v>
+      </c>
+      <c r="E2" s="6">
+        <v>44286</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H2" s="37">
+        <v>44253</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="4">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4">
+        <v>6000</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1525</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44286</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="37">
+        <v>44253</v>
+      </c>
+      <c r="I3" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" s="4">
+        <v>202105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="4">
+        <v>12000</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3660</v>
+      </c>
+      <c r="E4" s="6">
+        <v>44286</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="37">
+        <v>44253</v>
+      </c>
       <c r="I4" s="38" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
+        <v>65</v>
+      </c>
+      <c r="J4" s="4">
+        <v>202105</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C5" s="4">
-        <v>9000</v>
-      </c>
-      <c r="D5" s="5">
-        <v>2135</v>
-      </c>
+        <v>19000</v>
+      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="6">
         <v>44286</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="39">
-        <v>44253</v>
-      </c>
-      <c r="I5" s="40" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="H5" s="37">
+        <v>44266</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>67</v>
       </c>
       <c r="J5" s="4">
-        <v>202105</v>
+        <v>202108</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6" s="4">
-        <v>6000</v>
+        <v>1000</v>
       </c>
       <c r="D6" s="5">
-        <v>1525</v>
+        <v>305</v>
       </c>
       <c r="E6" s="6">
         <v>44286</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="39">
-        <v>44253</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>66</v>
+        <v>47</v>
+      </c>
+      <c r="H6" s="37">
+        <v>44266</v>
+      </c>
+      <c r="I6" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="J6" s="4">
-        <v>202105</v>
+        <v>202108</v>
       </c>
     </row>
     <row r="7" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C7" s="4">
-        <v>12000</v>
+        <v>2000</v>
       </c>
       <c r="D7" s="5">
-        <v>3660</v>
+        <v>610</v>
       </c>
       <c r="E7" s="6">
         <v>44286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="39">
-        <v>44253</v>
-      </c>
-      <c r="I7" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="37">
+        <v>44266</v>
+      </c>
+      <c r="I7" s="38" t="s">
         <v>68</v>
       </c>
       <c r="J7" s="4">
-        <v>202105</v>
+        <v>202108</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="4">
-        <v>19000</v>
-      </c>
-      <c r="D8" s="5"/>
+        <v>2000</v>
+      </c>
+      <c r="D8" s="5">
+        <v>610</v>
+      </c>
       <c r="E8" s="6">
         <v>44286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H8" s="39">
+        <v>47</v>
+      </c>
+      <c r="H8" s="37">
         <v>44266</v>
       </c>
-      <c r="I8" s="40" t="s">
-        <v>70</v>
+      <c r="I8" s="38" t="s">
+        <v>68</v>
       </c>
       <c r="J8" s="4">
         <v>202108</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="5">
-        <v>305</v>
-      </c>
-      <c r="E9" s="6">
-        <v>44286</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="39">
-        <v>44266</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="4">
-        <v>202108</v>
-      </c>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D10" s="5">
-        <v>610</v>
-      </c>
-      <c r="E10" s="6">
-        <v>44286</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="39">
-        <v>44266</v>
-      </c>
-      <c r="I10" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="4">
-        <v>202108</v>
-      </c>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2000</v>
-      </c>
-      <c r="D11" s="5">
-        <v>610</v>
-      </c>
-      <c r="E11" s="6">
-        <v>44286</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="39">
-        <v>44266</v>
-      </c>
-      <c r="I11" s="40" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="4">
-        <v>202108</v>
-      </c>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A12" s="4"/>
@@ -2088,8 +2088,8 @@
       <c r="E12" s="6"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="40"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="38"/>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
@@ -2100,8 +2100,8 @@
       <c r="E13" s="6"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="40"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="38"/>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
@@ -2112,8 +2112,8 @@
       <c r="E14" s="6"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="40"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="38"/>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
@@ -2124,63 +2124,27 @@
       <c r="E15" s="6"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="40"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="38"/>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
+      <c r="D16" s="9"/>
       <c r="E16" s="6"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="40"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="38"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="40"/>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="25" spans="1:10" ht="21" customHeight="1">
-      <c r="I25" s="42"/>
+    <row r="22" spans="9:9" ht="21" customHeight="1">
+      <c r="I22" s="40"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:G19" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G16" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2188,12 +2152,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2420,15 +2381,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48133392-2D3F-4467-B732-5B73A980B0F9}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42BF5B5-6BF4-42FA-BC0B-E87C5B009851}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2453,10 +2418,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A42BF5B5-6BF4-42FA-BC0B-E87C5B009851}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48133392-2D3F-4467-B732-5B73A980B0F9}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>